--- a/Code/Results/Cases/Case_1_114/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_114/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.297877013773984</v>
+        <v>1.674985639065483</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2246821225458575</v>
+        <v>0.1739349866106039</v>
       </c>
       <c r="E2">
-        <v>0.3815337089961872</v>
+        <v>0.253121296826734</v>
       </c>
       <c r="F2">
-        <v>1.07708891853342</v>
+        <v>2.05332449930593</v>
       </c>
       <c r="G2">
-        <v>1.201867765612292</v>
+        <v>1.48442475116633</v>
       </c>
       <c r="H2">
-        <v>0.713856319313237</v>
+        <v>1.326505145020036</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6166487248560486</v>
+        <v>0.3827937704926114</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.38973221935035</v>
+        <v>0.5934112428884362</v>
       </c>
       <c r="M2">
-        <v>0.8707779352686131</v>
+        <v>0.4907106959707761</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.013786265714202</v>
+        <v>1.596616672991161</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2031929058028226</v>
+        <v>0.1671798858679381</v>
       </c>
       <c r="E3">
-        <v>0.3465289460003476</v>
+        <v>0.2419745318911026</v>
       </c>
       <c r="F3">
-        <v>1.025779331150218</v>
+        <v>2.068119898121935</v>
       </c>
       <c r="G3">
-        <v>1.093033009228748</v>
+        <v>1.479313313549753</v>
       </c>
       <c r="H3">
-        <v>0.6747477136528914</v>
+        <v>1.332673545421528</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5606139937715255</v>
+        <v>0.3647985006520145</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.205451214810353</v>
+        <v>0.5378407109201646</v>
       </c>
       <c r="M3">
-        <v>0.7578281316905446</v>
+        <v>0.4579375082744335</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.840958215737629</v>
+        <v>1.54893231772823</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1900981844290754</v>
+        <v>0.162996975481704</v>
       </c>
       <c r="E4">
-        <v>0.3251496869814545</v>
+        <v>0.2351104525886072</v>
       </c>
       <c r="F4">
-        <v>0.9983871523600527</v>
+        <v>2.07889269964349</v>
       </c>
       <c r="G4">
-        <v>1.030569369600585</v>
+        <v>1.47762503735737</v>
       </c>
       <c r="H4">
-        <v>0.6530973023290159</v>
+        <v>1.337446048174797</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5264031622110963</v>
+        <v>0.3537419335614089</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.09298600906132</v>
+        <v>0.5037233380477346</v>
       </c>
       <c r="M4">
-        <v>0.6889894262620402</v>
+        <v>0.4378910731713646</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.770874594034979</v>
+        <v>1.529610490772058</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1847809524109181</v>
+        <v>0.1612834959818912</v>
       </c>
       <c r="E5">
-        <v>0.3164597403561302</v>
+        <v>0.2323083969131332</v>
       </c>
       <c r="F5">
-        <v>0.9881824144005407</v>
+        <v>2.083705882097973</v>
       </c>
       <c r="G5">
-        <v>1.006114698187204</v>
+        <v>1.477299788878682</v>
       </c>
       <c r="H5">
-        <v>0.6448235977546375</v>
+        <v>1.339637871516047</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5125017588290177</v>
+        <v>0.3492347173716297</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.047292034803121</v>
+        <v>0.4898214643109782</v>
       </c>
       <c r="M5">
-        <v>0.6610436750524329</v>
+        <v>0.4297414664282613</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.75925649582291</v>
+        <v>1.526408776418208</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1838990081218697</v>
+        <v>0.1609984346206517</v>
       </c>
       <c r="E6">
-        <v>0.3150179524570689</v>
+        <v>0.2318428261747627</v>
       </c>
       <c r="F6">
-        <v>0.9865436563063383</v>
+        <v>2.084530626116688</v>
       </c>
       <c r="G6">
-        <v>1.002111712142906</v>
+        <v>1.47726763403081</v>
       </c>
       <c r="H6">
-        <v>0.643481664679058</v>
+        <v>1.340016718771651</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5101955925810699</v>
+        <v>0.3484862109732632</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.039711850299454</v>
+        <v>0.487513156595071</v>
       </c>
       <c r="M6">
-        <v>0.6564091220621862</v>
+        <v>0.4283894147474001</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.840011719443311</v>
+        <v>1.548671290786785</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1900264052209337</v>
+        <v>0.1629739030281598</v>
       </c>
       <c r="E7">
-        <v>0.3250324090872283</v>
+        <v>0.2350726827086547</v>
       </c>
       <c r="F7">
-        <v>0.9982457460777425</v>
+        <v>2.07895590031363</v>
       </c>
       <c r="G7">
-        <v>1.03023563989106</v>
+        <v>1.477619184781588</v>
       </c>
       <c r="H7">
-        <v>0.652983554262903</v>
+        <v>1.337474608783381</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5262155334267078</v>
+        <v>0.3536811536589681</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.09236925612305</v>
+        <v>0.503535846925331</v>
       </c>
       <c r="M7">
-        <v>0.6886121368025258</v>
+        <v>0.4377810855077584</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.199552751133808</v>
+        <v>1.647874207200061</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2172480738607163</v>
+        <v>0.1716131145815893</v>
       </c>
       <c r="E8">
-        <v>0.3694364292368491</v>
+        <v>0.2492820949962464</v>
       </c>
       <c r="F8">
-        <v>1.058496111304805</v>
+        <v>2.058074701318546</v>
       </c>
       <c r="G8">
-        <v>1.163375521234428</v>
+        <v>1.482360182996558</v>
       </c>
       <c r="H8">
-        <v>0.6998530847992299</v>
+        <v>1.32842712157634</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5972817216121342</v>
+        <v>0.376590699896596</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.32602774330266</v>
+        <v>0.5742501072764696</v>
       </c>
       <c r="M8">
-        <v>0.8317122729793169</v>
+        <v>0.4793947775182019</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.920271088454854</v>
+        <v>1.845841062963927</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2717316625191017</v>
+        <v>0.1882777558568733</v>
       </c>
       <c r="E9">
-        <v>0.457739222303978</v>
+        <v>0.2769848635144001</v>
       </c>
       <c r="F9">
-        <v>1.213055405139073</v>
+        <v>2.030586713591006</v>
       </c>
       <c r="G9">
-        <v>1.463887311806417</v>
+        <v>1.503253315598641</v>
       </c>
       <c r="H9">
-        <v>0.8127485245505284</v>
+        <v>1.318534853009425</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7386561386159514</v>
+        <v>0.4214476361764525</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.791454319426151</v>
+        <v>0.7129343630377321</v>
       </c>
       <c r="M9">
-        <v>1.117528822876082</v>
+        <v>0.561599114294367</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.46389458136349</v>
+        <v>1.993373260071621</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3129264150623356</v>
+        <v>0.2003576876318931</v>
       </c>
       <c r="E10">
-        <v>0.5238773659658307</v>
+        <v>0.2972366319412387</v>
       </c>
       <c r="F10">
-        <v>1.354670134586542</v>
+        <v>2.018687056306121</v>
       </c>
       <c r="G10">
-        <v>1.716203164692985</v>
+        <v>1.525801320448721</v>
       </c>
       <c r="H10">
-        <v>0.9119689771062554</v>
+        <v>1.316101015179214</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.8444960531633399</v>
+        <v>0.454352737727433</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.140631200308945</v>
+        <v>0.8148308189254294</v>
       </c>
       <c r="M10">
-        <v>1.332453346306934</v>
+        <v>0.6223589608455029</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.715428341914446</v>
+        <v>2.060942957234545</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3320498187994474</v>
+        <v>0.2058188602901794</v>
       </c>
       <c r="E11">
-        <v>0.5543731533761118</v>
+        <v>0.3064272829191381</v>
       </c>
       <c r="F11">
-        <v>1.426689450722066</v>
+        <v>2.015094631159286</v>
       </c>
       <c r="G11">
-        <v>1.839759366382054</v>
+        <v>1.537650019212549</v>
       </c>
       <c r="H11">
-        <v>0.9615361622786338</v>
+        <v>1.316054132879827</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8932663740929314</v>
+        <v>0.4693093601215992</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.301776231048962</v>
+        <v>0.8611876832263476</v>
       </c>
       <c r="M11">
-        <v>1.431751152260574</v>
+        <v>0.6500796499821462</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.811396276951143</v>
+        <v>2.086595218679463</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.339359178039885</v>
+        <v>0.2078820450846308</v>
       </c>
       <c r="E12">
-        <v>0.565992796920149</v>
+        <v>0.3099043121678307</v>
       </c>
       <c r="F12">
-        <v>1.455198230879972</v>
+        <v>2.013997685810409</v>
       </c>
       <c r="G12">
-        <v>1.887994120618686</v>
+        <v>1.542367880732542</v>
       </c>
       <c r="H12">
-        <v>0.9810293618870958</v>
+        <v>1.316189696380548</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.911842411469209</v>
+        <v>0.4749711100330671</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.363197769624406</v>
+        <v>0.878742175002003</v>
       </c>
       <c r="M12">
-        <v>1.46961501511467</v>
+        <v>0.6605882642996619</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.790694085717121</v>
+        <v>2.081067659314158</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3377817440310338</v>
+        <v>0.2074379158325996</v>
       </c>
       <c r="E13">
-        <v>0.5634868955246546</v>
+        <v>0.3091556188788616</v>
       </c>
       <c r="F13">
-        <v>1.449000860920009</v>
+        <v>2.014222190984867</v>
       </c>
       <c r="G13">
-        <v>1.877538358929996</v>
+        <v>1.541341495777544</v>
       </c>
       <c r="H13">
-        <v>0.9767974979889971</v>
+        <v>1.316153667944064</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.907836621294706</v>
+        <v>0.4737518438446671</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.349950596993239</v>
+        <v>0.8749614999666164</v>
       </c>
       <c r="M13">
-        <v>1.461447975315323</v>
+        <v>0.6583245428950306</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.723308633576153</v>
+        <v>2.063052082999548</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3326497280109493</v>
+        <v>0.2059886964861875</v>
       </c>
       <c r="E14">
-        <v>0.5553275954873769</v>
+        <v>0.3067134063729426</v>
       </c>
       <c r="F14">
-        <v>1.429009209681254</v>
+        <v>2.014999096111751</v>
       </c>
       <c r="G14">
-        <v>1.843697530243986</v>
+        <v>1.538033518184506</v>
       </c>
       <c r="H14">
-        <v>0.9631248530712355</v>
+        <v>1.316062208184178</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.894792363369092</v>
+        <v>0.4697751972139201</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.306820990877242</v>
+        <v>0.8626319008049563</v>
       </c>
       <c r="M14">
-        <v>1.434860724522821</v>
+        <v>0.6509439729157407</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.682129983118386</v>
+        <v>2.052025481762712</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3295154460744101</v>
+        <v>0.2051003787459109</v>
       </c>
       <c r="E15">
-        <v>0.5503395132222693</v>
+        <v>0.3052170515559212</v>
       </c>
       <c r="F15">
-        <v>1.416929383549956</v>
+        <v>2.015509326718046</v>
       </c>
       <c r="G15">
-        <v>1.823163341567152</v>
+        <v>1.536037435896048</v>
       </c>
       <c r="H15">
-        <v>0.9548468866611017</v>
+        <v>1.316026178140703</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.8868169937232864</v>
+        <v>0.4673391184558682</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.280457052125058</v>
+        <v>0.8550796746312699</v>
       </c>
       <c r="M15">
-        <v>1.418610721777384</v>
+        <v>0.6464246378922667</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.447550481431563</v>
+        <v>1.988966559235678</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3116854102215143</v>
+        <v>0.2000001065175212</v>
       </c>
       <c r="E16">
-        <v>0.5218936766867373</v>
+        <v>0.2966355494657051</v>
       </c>
       <c r="F16">
-        <v>1.350128294682364</v>
+        <v>2.018958605296945</v>
       </c>
       <c r="G16">
-        <v>1.708320329134779</v>
+        <v>1.525059189578485</v>
       </c>
       <c r="H16">
-        <v>0.9088259122355851</v>
+        <v>1.316125487102795</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.8413228378911981</v>
+        <v>0.4533750217022003</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.130151973586948</v>
+        <v>0.8118013300168059</v>
       </c>
       <c r="M16">
-        <v>1.325998237161897</v>
+        <v>0.6205489541804781</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.304801794819127</v>
+        <v>1.950398473825715</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3008539248464217</v>
+        <v>0.1968625712443384</v>
       </c>
       <c r="E17">
-        <v>0.5045564044205761</v>
+        <v>0.2913653663647437</v>
       </c>
       <c r="F17">
-        <v>1.311190901614992</v>
+        <v>2.021542109752062</v>
       </c>
       <c r="G17">
-        <v>1.640239808027673</v>
+        <v>1.518733545647649</v>
       </c>
       <c r="H17">
-        <v>0.8817862586131469</v>
+        <v>1.316458575999036</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.8135854652818608</v>
+        <v>0.4448052188201075</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.038580405022827</v>
+        <v>0.7852521312778151</v>
       </c>
       <c r="M17">
-        <v>1.26960321777544</v>
+        <v>0.6046955779804506</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.223088105008458</v>
+        <v>1.928258136884267</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.294659206402855</v>
+        <v>0.1950547357559174</v>
       </c>
       <c r="E18">
-        <v>0.4946221265266857</v>
+        <v>0.2883320338367739</v>
       </c>
       <c r="F18">
-        <v>1.289500681258403</v>
+        <v>2.023199358223707</v>
       </c>
       <c r="G18">
-        <v>1.601895414692336</v>
+        <v>1.515244872048754</v>
       </c>
       <c r="H18">
-        <v>0.8666451051153388</v>
+        <v>1.316749907589866</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.7976891047796499</v>
+        <v>0.4398749735485552</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.986123040002639</v>
+        <v>0.7699820991926742</v>
       </c>
       <c r="M18">
-        <v>1.237307258519692</v>
+        <v>0.5955847461880097</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.195485412699099</v>
+        <v>1.920769203348073</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2925674838932508</v>
+        <v>0.1944420811254304</v>
       </c>
       <c r="E19">
-        <v>0.4912646593301417</v>
+        <v>0.2873046487468471</v>
       </c>
       <c r="F19">
-        <v>1.282273825549211</v>
+        <v>2.023789843799875</v>
       </c>
       <c r="G19">
-        <v>1.589047172421147</v>
+        <v>1.514089307326827</v>
       </c>
       <c r="H19">
-        <v>0.8615867764285099</v>
+        <v>1.316865653432643</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.7923162202505978</v>
+        <v>0.4382054927710328</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.968396375940017</v>
+        <v>0.7648120030964662</v>
       </c>
       <c r="M19">
-        <v>1.226395406597533</v>
+        <v>0.5925012891261474</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.3199563652027</v>
+        <v>1.954499665656272</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.302003219784325</v>
+        <v>0.1971968988860056</v>
       </c>
       <c r="E20">
-        <v>0.506398002058198</v>
+        <v>0.2919266006369199</v>
       </c>
       <c r="F20">
-        <v>1.315261847545656</v>
+        <v>2.021249352380025</v>
       </c>
       <c r="G20">
-        <v>1.647401616171607</v>
+        <v>1.519391415409416</v>
       </c>
       <c r="H20">
-        <v>0.8846215161200917</v>
+        <v>1.316412788484342</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.8165320867314421</v>
+        <v>0.4457176069472411</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.048305927541094</v>
+        <v>0.7880783038186223</v>
       </c>
       <c r="M20">
-        <v>1.275591684638272</v>
+        <v>0.6063824108632616</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.743080971567963</v>
+        <v>2.06834193249739</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3341551777467515</v>
+        <v>0.2064144983322507</v>
       </c>
       <c r="E21">
-        <v>0.5577221279275335</v>
+        <v>0.3074308330082758</v>
       </c>
       <c r="F21">
-        <v>1.434846439681948</v>
+        <v>2.014763738074208</v>
       </c>
       <c r="G21">
-        <v>1.853596546418856</v>
+        <v>1.538998864386315</v>
       </c>
       <c r="H21">
-        <v>0.9671204718847832</v>
+        <v>1.31608490435346</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8986206965454926</v>
+        <v>0.4709432910044882</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.319477774069952</v>
+        <v>0.8662534016417851</v>
       </c>
       <c r="M21">
-        <v>1.442662572586613</v>
+        <v>0.6531115177497071</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.02385991323564</v>
+        <v>2.143123549989582</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3555704102484327</v>
+        <v>0.2124105315266718</v>
       </c>
       <c r="E22">
-        <v>0.5916896654860153</v>
+        <v>0.3175446327289393</v>
       </c>
       <c r="F22">
-        <v>1.520290813659727</v>
+        <v>2.012061224485421</v>
       </c>
       <c r="G22">
-        <v>1.996893331637779</v>
+        <v>1.55316101820091</v>
       </c>
       <c r="H22">
-        <v>1.025301999295039</v>
+        <v>1.316764660020141</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.9529087611183797</v>
+        <v>0.4874179705275878</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.499070575104099</v>
+        <v>0.9173460849046364</v>
       </c>
       <c r="M22">
-        <v>1.553403387372953</v>
+        <v>0.6837179939571314</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.873575408889167</v>
+        <v>2.103176684198274</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3440992596955539</v>
+        <v>0.2092128978934369</v>
       </c>
       <c r="E23">
-        <v>0.5735170664231362</v>
+        <v>0.3121484913677648</v>
       </c>
       <c r="F23">
-        <v>1.47396797965213</v>
+        <v>2.013362512029147</v>
       </c>
       <c r="G23">
-        <v>1.919564493224669</v>
+        <v>1.545478391770587</v>
       </c>
       <c r="H23">
-        <v>0.9938278371112688</v>
+        <v>1.316319773770658</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.9238691436873694</v>
+        <v>0.4786262845991587</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.402977088782507</v>
+        <v>0.8900770077092375</v>
       </c>
       <c r="M23">
-        <v>1.494141696578168</v>
+        <v>0.6673767433692603</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.313103887977832</v>
+        <v>1.952645414094661</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3014835234031494</v>
+        <v>0.1970457618989059</v>
       </c>
       <c r="E24">
-        <v>0.5055653134456009</v>
+        <v>0.2916728773103543</v>
       </c>
       <c r="F24">
-        <v>1.313419217505967</v>
+        <v>2.021381172500213</v>
       </c>
       <c r="G24">
-        <v>1.644161296976364</v>
+        <v>1.519093531593683</v>
       </c>
       <c r="H24">
-        <v>0.8833384432390687</v>
+        <v>1.316433178122111</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.8151997640766098</v>
+        <v>0.4453051266937962</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.043908437191419</v>
+        <v>0.7868006115675144</v>
       </c>
       <c r="M24">
-        <v>1.272883908536755</v>
+        <v>0.605619782844002</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.72317884018895</v>
+        <v>1.791919210904098</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.256827183874492</v>
+        <v>0.1837986377970964</v>
       </c>
       <c r="E25">
-        <v>0.43367026876669</v>
+        <v>0.2695081643191699</v>
       </c>
       <c r="F25">
-        <v>1.166778527625567</v>
+        <v>2.036572663194136</v>
       </c>
       <c r="G25">
-        <v>1.377646587914256</v>
+        <v>1.496346481088267</v>
       </c>
       <c r="H25">
-        <v>0.7796245623936215</v>
+        <v>1.320365599255496</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.7001234141888233</v>
+        <v>0.4093210053905239</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.664498261808319</v>
+        <v>0.6754155471751346</v>
       </c>
       <c r="M25">
-        <v>1.039480587187434</v>
+        <v>0.5392966291227665</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_114/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_114/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.674985639065483</v>
+        <v>2.297877013773757</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1739349866106039</v>
+        <v>0.2246821225459286</v>
       </c>
       <c r="E2">
-        <v>0.253121296826734</v>
+        <v>0.3815337089961801</v>
       </c>
       <c r="F2">
-        <v>2.05332449930593</v>
+        <v>1.077088918533434</v>
       </c>
       <c r="G2">
-        <v>1.48442475116633</v>
+        <v>1.201867765612349</v>
       </c>
       <c r="H2">
-        <v>1.326505145020036</v>
+        <v>0.7138563193132654</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3827937704926114</v>
+        <v>0.6166487248561197</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5934112428884362</v>
+        <v>1.389732219350265</v>
       </c>
       <c r="M2">
-        <v>0.4907106959707761</v>
+        <v>0.8707779352686202</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.596616672991161</v>
+        <v>2.013786265714032</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1671798858679381</v>
+        <v>0.2031929058028084</v>
       </c>
       <c r="E3">
-        <v>0.2419745318911026</v>
+        <v>0.3465289460003262</v>
       </c>
       <c r="F3">
-        <v>2.068119898121935</v>
+        <v>1.025779331150218</v>
       </c>
       <c r="G3">
-        <v>1.479313313549753</v>
+        <v>1.093033009228805</v>
       </c>
       <c r="H3">
-        <v>1.332673545421528</v>
+        <v>0.6747477136528914</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3647985006520145</v>
+        <v>0.5606139937714545</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5378407109201646</v>
+        <v>1.205451214810552</v>
       </c>
       <c r="M3">
-        <v>0.4579375082744335</v>
+        <v>0.7578281316905517</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.54893231772823</v>
+        <v>1.840958215737601</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.162996975481704</v>
+        <v>0.1900981844292886</v>
       </c>
       <c r="E4">
-        <v>0.2351104525886072</v>
+        <v>0.3251496869814616</v>
       </c>
       <c r="F4">
-        <v>2.07889269964349</v>
+        <v>0.9983871523600527</v>
       </c>
       <c r="G4">
-        <v>1.47762503735737</v>
+        <v>1.030569369600585</v>
       </c>
       <c r="H4">
-        <v>1.337446048174797</v>
+        <v>0.6530973023289022</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3537419335614089</v>
+        <v>0.526403162211011</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5037233380477346</v>
+        <v>1.092986009061434</v>
       </c>
       <c r="M4">
-        <v>0.4378910731713646</v>
+        <v>0.6889894262620118</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.529610490772058</v>
+        <v>1.770874594034836</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1612834959818912</v>
+        <v>0.1847809524106196</v>
       </c>
       <c r="E5">
-        <v>0.2323083969131332</v>
+        <v>0.3164597403561089</v>
       </c>
       <c r="F5">
-        <v>2.083705882097973</v>
+        <v>0.9881824144005407</v>
       </c>
       <c r="G5">
-        <v>1.477299788878682</v>
+        <v>1.006114698187233</v>
       </c>
       <c r="H5">
-        <v>1.339637871516047</v>
+        <v>0.6448235977546375</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3492347173716297</v>
+        <v>0.5125017588290888</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4898214643109782</v>
+        <v>1.047292034803064</v>
       </c>
       <c r="M5">
-        <v>0.4297414664282613</v>
+        <v>0.6610436750524329</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.526408776418208</v>
+        <v>1.759256495822939</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1609984346206517</v>
+        <v>0.183899008122026</v>
       </c>
       <c r="E6">
-        <v>0.2318428261747627</v>
+        <v>0.3150179524570973</v>
       </c>
       <c r="F6">
-        <v>2.084530626116688</v>
+        <v>0.9865436563063525</v>
       </c>
       <c r="G6">
-        <v>1.47726763403081</v>
+        <v>1.002111712142934</v>
       </c>
       <c r="H6">
-        <v>1.340016718771651</v>
+        <v>0.6434816646789443</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3484862109732632</v>
+        <v>0.5101955925810273</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.487513156595071</v>
+        <v>1.039711850299256</v>
       </c>
       <c r="M6">
-        <v>0.4283894147474001</v>
+        <v>0.6564091220621933</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.548671290786785</v>
+        <v>1.840011719443339</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1629739030281598</v>
+        <v>0.1900264052208769</v>
       </c>
       <c r="E7">
-        <v>0.2350726827086547</v>
+        <v>0.3250324090872141</v>
       </c>
       <c r="F7">
-        <v>2.07895590031363</v>
+        <v>0.9982457460777425</v>
       </c>
       <c r="G7">
-        <v>1.477619184781588</v>
+        <v>1.03023563989106</v>
       </c>
       <c r="H7">
-        <v>1.337474608783381</v>
+        <v>0.652983554262903</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3536811536589681</v>
+        <v>0.5262155334266652</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.503535846925331</v>
+        <v>1.09236925612305</v>
       </c>
       <c r="M7">
-        <v>0.4377810855077584</v>
+        <v>0.6886121368025258</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.647874207200061</v>
+        <v>2.199552751134036</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1716131145815893</v>
+        <v>0.2172480738604463</v>
       </c>
       <c r="E8">
-        <v>0.2492820949962464</v>
+        <v>0.3694364292368491</v>
       </c>
       <c r="F8">
-        <v>2.058074701318546</v>
+        <v>1.058496111304805</v>
       </c>
       <c r="G8">
-        <v>1.482360182996558</v>
+        <v>1.163375521234485</v>
       </c>
       <c r="H8">
-        <v>1.32842712157634</v>
+        <v>0.6998530847992299</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.376590699896596</v>
+        <v>0.5972817216122195</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5742501072764696</v>
+        <v>1.326027743302603</v>
       </c>
       <c r="M8">
-        <v>0.4793947775182019</v>
+        <v>0.8317122729793027</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.845841062963927</v>
+        <v>2.920271088454683</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1882777558568733</v>
+        <v>0.2717316625188744</v>
       </c>
       <c r="E9">
-        <v>0.2769848635144001</v>
+        <v>0.4577392223039638</v>
       </c>
       <c r="F9">
-        <v>2.030586713591006</v>
+        <v>1.213055405139073</v>
       </c>
       <c r="G9">
-        <v>1.503253315598641</v>
+        <v>1.463887311806474</v>
       </c>
       <c r="H9">
-        <v>1.318534853009425</v>
+        <v>0.8127485245505284</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4214476361764525</v>
+        <v>0.7386561386158661</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.7129343630377321</v>
+        <v>1.791454319426208</v>
       </c>
       <c r="M9">
-        <v>0.561599114294367</v>
+        <v>1.117528822876082</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.993373260071621</v>
+        <v>3.463894581363263</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2003576876318931</v>
+        <v>0.3129264150625346</v>
       </c>
       <c r="E10">
-        <v>0.2972366319412387</v>
+        <v>0.5238773659658165</v>
       </c>
       <c r="F10">
-        <v>2.018687056306121</v>
+        <v>1.354670134586542</v>
       </c>
       <c r="G10">
-        <v>1.525801320448721</v>
+        <v>1.716203164692985</v>
       </c>
       <c r="H10">
-        <v>1.316101015179214</v>
+        <v>0.9119689771062554</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.454352737727433</v>
+        <v>0.8444960531633825</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.8148308189254294</v>
+        <v>2.140631200308974</v>
       </c>
       <c r="M10">
-        <v>0.6223589608455029</v>
+        <v>1.332453346306949</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.060942957234545</v>
+        <v>3.715428341914617</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2058188602901794</v>
+        <v>0.3320498187994616</v>
       </c>
       <c r="E11">
-        <v>0.3064272829191381</v>
+        <v>0.5543731533761118</v>
       </c>
       <c r="F11">
-        <v>2.015094631159286</v>
+        <v>1.42668945072208</v>
       </c>
       <c r="G11">
-        <v>1.537650019212549</v>
+        <v>1.839759366382054</v>
       </c>
       <c r="H11">
-        <v>1.316054132879827</v>
+        <v>0.9615361622786907</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4693093601215992</v>
+        <v>0.8932663740928746</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.8611876832263476</v>
+        <v>2.301776231048962</v>
       </c>
       <c r="M11">
-        <v>0.6500796499821462</v>
+        <v>1.43175115226056</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.086595218679463</v>
+        <v>3.811396276951314</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2078820450846308</v>
+        <v>0.3393591780399987</v>
       </c>
       <c r="E12">
-        <v>0.3099043121678307</v>
+        <v>0.5659927969201703</v>
       </c>
       <c r="F12">
-        <v>2.013997685810409</v>
+        <v>1.455198230879958</v>
       </c>
       <c r="G12">
-        <v>1.542367880732542</v>
+        <v>1.887994120618629</v>
       </c>
       <c r="H12">
-        <v>1.316189696380548</v>
+        <v>0.9810293618870958</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4749711100330671</v>
+        <v>0.9118424114691663</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.878742175002003</v>
+        <v>2.363197769624378</v>
       </c>
       <c r="M12">
-        <v>0.6605882642996619</v>
+        <v>1.469615015114698</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.081067659314158</v>
+        <v>3.790694085717234</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2074379158325996</v>
+        <v>0.3377817440309059</v>
       </c>
       <c r="E13">
-        <v>0.3091556188788616</v>
+        <v>0.5634868955246191</v>
       </c>
       <c r="F13">
-        <v>2.014222190984867</v>
+        <v>1.449000860919995</v>
       </c>
       <c r="G13">
-        <v>1.541341495777544</v>
+        <v>1.877538358930053</v>
       </c>
       <c r="H13">
-        <v>1.316153667944064</v>
+        <v>0.9767974979889971</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4737518438446671</v>
+        <v>0.907836621294706</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.8749614999666164</v>
+        <v>2.349950596993295</v>
       </c>
       <c r="M13">
-        <v>0.6583245428950306</v>
+        <v>1.461447975315295</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.063052082999548</v>
+        <v>3.723308633575868</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2059886964861875</v>
+        <v>0.3326497280109351</v>
       </c>
       <c r="E14">
-        <v>0.3067134063729426</v>
+        <v>0.5553275954873769</v>
       </c>
       <c r="F14">
-        <v>2.014999096111751</v>
+        <v>1.42900920968124</v>
       </c>
       <c r="G14">
-        <v>1.538033518184506</v>
+        <v>1.843697530243958</v>
       </c>
       <c r="H14">
-        <v>1.316062208184178</v>
+        <v>0.9631248530713776</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4697751972139201</v>
+        <v>0.8947923633692199</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.8626319008049563</v>
+        <v>2.306820990877128</v>
       </c>
       <c r="M14">
-        <v>0.6509439729157407</v>
+        <v>1.434860724522778</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.052025481762712</v>
+        <v>3.682129983118386</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2051003787459109</v>
+        <v>0.3295154460742964</v>
       </c>
       <c r="E15">
-        <v>0.3052170515559212</v>
+        <v>0.5503395132222764</v>
       </c>
       <c r="F15">
-        <v>2.015509326718046</v>
+        <v>1.416929383549956</v>
       </c>
       <c r="G15">
-        <v>1.536037435896048</v>
+        <v>1.823163341567238</v>
       </c>
       <c r="H15">
-        <v>1.316026178140703</v>
+        <v>0.9548468866611017</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4673391184558682</v>
+        <v>0.8868169937232437</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.8550796746312699</v>
+        <v>2.280457052125058</v>
       </c>
       <c r="M15">
-        <v>0.6464246378922667</v>
+        <v>1.418610721777426</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.988966559235678</v>
+        <v>3.44755048143179</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2000001065175212</v>
+        <v>0.3116854102216706</v>
       </c>
       <c r="E16">
-        <v>0.2966355494657051</v>
+        <v>0.5218936766867301</v>
       </c>
       <c r="F16">
-        <v>2.018958605296945</v>
+        <v>1.350128294682364</v>
       </c>
       <c r="G16">
-        <v>1.525059189578485</v>
+        <v>1.70832032913475</v>
       </c>
       <c r="H16">
-        <v>1.316125487102795</v>
+        <v>0.9088259122354998</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4533750217022003</v>
+        <v>0.8413228378911413</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.8118013300168059</v>
+        <v>2.13015197358709</v>
       </c>
       <c r="M16">
-        <v>0.6205489541804781</v>
+        <v>1.325998237161912</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.950398473825715</v>
+        <v>3.304801794819127</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1968625712443384</v>
+        <v>0.3008539248463649</v>
       </c>
       <c r="E17">
-        <v>0.2913653663647437</v>
+        <v>0.5045564044205975</v>
       </c>
       <c r="F17">
-        <v>2.021542109752062</v>
+        <v>1.311190901614992</v>
       </c>
       <c r="G17">
-        <v>1.518733545647649</v>
+        <v>1.640239808027673</v>
       </c>
       <c r="H17">
-        <v>1.316458575999036</v>
+        <v>0.8817862586130332</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4448052188201075</v>
+        <v>0.8135854652818892</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.7852521312778151</v>
+        <v>2.03858040502277</v>
       </c>
       <c r="M17">
-        <v>0.6046955779804506</v>
+        <v>1.269603217775483</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.928258136884267</v>
+        <v>3.223088105008515</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1950547357559174</v>
+        <v>0.2946592064026845</v>
       </c>
       <c r="E18">
-        <v>0.2883320338367739</v>
+        <v>0.494622126526707</v>
       </c>
       <c r="F18">
-        <v>2.023199358223707</v>
+        <v>1.289500681258403</v>
       </c>
       <c r="G18">
-        <v>1.515244872048754</v>
+        <v>1.601895414692393</v>
       </c>
       <c r="H18">
-        <v>1.316749907589866</v>
+        <v>0.8666451051154525</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4398749735485552</v>
+        <v>0.7976891047796641</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.7699820991926742</v>
+        <v>1.98612304000261</v>
       </c>
       <c r="M18">
-        <v>0.5955847461880097</v>
+        <v>1.237307258519735</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.920769203348073</v>
+        <v>3.195485412699441</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1944420811254304</v>
+        <v>0.2925674838930661</v>
       </c>
       <c r="E19">
-        <v>0.2873046487468471</v>
+        <v>0.4912646593301275</v>
       </c>
       <c r="F19">
-        <v>2.023789843799875</v>
+        <v>1.282273825549183</v>
       </c>
       <c r="G19">
-        <v>1.514089307326827</v>
+        <v>1.589047172421175</v>
       </c>
       <c r="H19">
-        <v>1.316865653432643</v>
+        <v>0.8615867764286236</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4382054927710328</v>
+        <v>0.7923162202505409</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.7648120030964662</v>
+        <v>1.968396375940046</v>
       </c>
       <c r="M19">
-        <v>0.5925012891261474</v>
+        <v>1.226395406597518</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.954499665656272</v>
+        <v>3.319956365202415</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1971968988860056</v>
+        <v>0.3020032197841402</v>
       </c>
       <c r="E20">
-        <v>0.2919266006369199</v>
+        <v>0.5063980020582477</v>
       </c>
       <c r="F20">
-        <v>2.021249352380025</v>
+        <v>1.315261847545656</v>
       </c>
       <c r="G20">
-        <v>1.519391415409416</v>
+        <v>1.647401616171607</v>
       </c>
       <c r="H20">
-        <v>1.316412788484342</v>
+        <v>0.8846215161200917</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4457176069472411</v>
+        <v>0.8165320867315131</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.7880783038186223</v>
+        <v>2.048305927541065</v>
       </c>
       <c r="M20">
-        <v>0.6063824108632616</v>
+        <v>1.275591684638272</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.06834193249739</v>
+        <v>3.743080971567792</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2064144983322507</v>
+        <v>0.3341551777471352</v>
       </c>
       <c r="E21">
-        <v>0.3074308330082758</v>
+        <v>0.5577221279275335</v>
       </c>
       <c r="F21">
-        <v>2.014763738074208</v>
+        <v>1.434846439681948</v>
       </c>
       <c r="G21">
-        <v>1.538998864386315</v>
+        <v>1.853596546418885</v>
       </c>
       <c r="H21">
-        <v>1.31608490435346</v>
+        <v>0.9671204718846695</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4709432910044882</v>
+        <v>0.8986206965456489</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.8662534016417851</v>
+        <v>2.319477774070009</v>
       </c>
       <c r="M21">
-        <v>0.6531115177497071</v>
+        <v>1.442662572586627</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.143123549989582</v>
+        <v>4.023859913235981</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2124105315266718</v>
+        <v>0.3555704102486601</v>
       </c>
       <c r="E22">
-        <v>0.3175446327289393</v>
+        <v>0.5916896654860153</v>
       </c>
       <c r="F22">
-        <v>2.012061224485421</v>
+        <v>1.520290813659727</v>
       </c>
       <c r="G22">
-        <v>1.55316101820091</v>
+        <v>1.996893331637665</v>
       </c>
       <c r="H22">
-        <v>1.316764660020141</v>
+        <v>1.025301999295039</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4874179705275878</v>
+        <v>0.9529087611183797</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.9173460849046364</v>
+        <v>2.499070575104213</v>
       </c>
       <c r="M22">
-        <v>0.6837179939571314</v>
+        <v>1.553403387372938</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.103176684198274</v>
+        <v>3.873575408889053</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2092128978934369</v>
+        <v>0.3440992596955397</v>
       </c>
       <c r="E23">
-        <v>0.3121484913677648</v>
+        <v>0.5735170664231362</v>
       </c>
       <c r="F23">
-        <v>2.013362512029147</v>
+        <v>1.47396797965213</v>
       </c>
       <c r="G23">
-        <v>1.545478391770587</v>
+        <v>1.919564493224669</v>
       </c>
       <c r="H23">
-        <v>1.316319773770658</v>
+        <v>0.9938278371112688</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4786262845991587</v>
+        <v>0.9238691436872841</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.8900770077092375</v>
+        <v>2.402977088782507</v>
       </c>
       <c r="M23">
-        <v>0.6673767433692603</v>
+        <v>1.494141696578183</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.952645414094661</v>
+        <v>3.313103887977604</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1970457618989059</v>
+        <v>0.3014835234030784</v>
       </c>
       <c r="E24">
-        <v>0.2916728773103543</v>
+        <v>0.5055653134456009</v>
       </c>
       <c r="F24">
-        <v>2.021381172500213</v>
+        <v>1.313419217505967</v>
       </c>
       <c r="G24">
-        <v>1.519093531593683</v>
+        <v>1.644161296976478</v>
       </c>
       <c r="H24">
-        <v>1.316433178122111</v>
+        <v>0.8833384432390972</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4453051266937962</v>
+        <v>0.815199764076624</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.7868006115675144</v>
+        <v>2.043908437191391</v>
       </c>
       <c r="M24">
-        <v>0.605619782844002</v>
+        <v>1.272883908536755</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.791919210904098</v>
+        <v>2.723178840188893</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1837986377970964</v>
+        <v>0.2568271838747478</v>
       </c>
       <c r="E25">
-        <v>0.2695081643191699</v>
+        <v>0.4336702687666687</v>
       </c>
       <c r="F25">
-        <v>2.036572663194136</v>
+        <v>1.166778527625581</v>
       </c>
       <c r="G25">
-        <v>1.496346481088267</v>
+        <v>1.377646587914199</v>
       </c>
       <c r="H25">
-        <v>1.320365599255496</v>
+        <v>0.7796245623936215</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4093210053905239</v>
+        <v>0.7001234141888659</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.6754155471751346</v>
+        <v>1.664498261808291</v>
       </c>
       <c r="M25">
-        <v>0.5392966291227665</v>
+        <v>1.039480587187427</v>
       </c>
       <c r="N25">
         <v>0</v>
